--- a/일정 관리/PM.xlsx
+++ b/일정 관리/PM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gywkd\Desktop\Project_RS_Design\일정 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC2E03FE-51E0-431E-8F15-5F4C9E87C7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F1FAC7-0BF4-4919-B616-5B41BAEC6000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{BB7487F1-7ED6-408A-A4FD-17909A5E2E5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB7487F1-7ED6-408A-A4FD-17909A5E2E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$H$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
   <si>
     <t>작업자</t>
   </si>
@@ -94,10 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>그래픽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -234,11 +229,135 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 QA 및 레벨 디자인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>마우스 나이트 애니메이팅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 정리 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 배경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그래픽 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김도영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불 속성 오브젝트 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 속성 오브젝트 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람 속성 오브젝트 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번개 속성 오브젝트 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅 속성 오브젝트 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안지성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 전개도 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 QA 및 레벨 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장해원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불의 정령 원화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물의 정령 원화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 정령 원화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번개의 정령 원화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토리스 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯 친구 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골렘 친구 만들기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +418,22 @@
       <color theme="7" tint="0.39997558519241921"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -359,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -419,13 +554,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,9 +618,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,24 +636,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,6 +650,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,13 +1001,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A3A7B7-FF1F-40F5-B89D-A859E33547D9}">
-  <dimension ref="A1:BB32"/>
+  <dimension ref="A1:BB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25:F30"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -869,209 +1055,200 @@
       <c r="G3"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4" s="5"/>
-    </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="22"/>
-      <c r="AU5" s="22"/>
-      <c r="AV5" s="22"/>
-      <c r="AW5" s="23"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="17"/>
     </row>
     <row r="6" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="21">
+        <v>21</v>
+      </c>
+      <c r="J6" s="22">
+        <v>22</v>
+      </c>
+      <c r="K6" s="21">
+        <v>23</v>
+      </c>
+      <c r="L6" s="21">
+        <v>24</v>
+      </c>
+      <c r="M6" s="21">
+        <v>25</v>
+      </c>
+      <c r="N6" s="21">
+        <v>26</v>
+      </c>
+      <c r="O6" s="21">
+        <v>27</v>
+      </c>
+      <c r="P6" s="21">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>29</v>
+      </c>
+      <c r="R6" s="21">
+        <v>30</v>
+      </c>
+      <c r="S6" s="21">
+        <v>31</v>
+      </c>
+      <c r="T6" s="21">
+        <v>1</v>
+      </c>
+      <c r="U6" s="21">
+        <v>2</v>
+      </c>
+      <c r="V6" s="21">
+        <v>3</v>
+      </c>
+      <c r="W6" s="21">
+        <v>4</v>
+      </c>
+      <c r="X6" s="21">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="21">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="21">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="21">
+        <v>11</v>
+      </c>
+      <c r="AE6" s="21">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="21">
+        <v>13</v>
+      </c>
+      <c r="AG6" s="21">
+        <v>14</v>
+      </c>
+      <c r="AH6" s="21">
+        <v>15</v>
+      </c>
+      <c r="AI6" s="21">
+        <v>16</v>
+      </c>
+      <c r="AJ6" s="21">
+        <v>17</v>
+      </c>
+      <c r="AK6" s="21">
+        <v>18</v>
+      </c>
+      <c r="AL6" s="21">
         <v>19</v>
       </c>
-      <c r="I6" s="3">
+      <c r="AM6" s="21">
+        <v>20</v>
+      </c>
+      <c r="AN6" s="21">
         <v>21</v>
       </c>
-      <c r="J6" s="8">
+      <c r="AO6" s="21">
         <v>22</v>
       </c>
-      <c r="K6" s="3">
+      <c r="AP6" s="21">
         <v>23</v>
       </c>
-      <c r="L6" s="3">
+      <c r="AQ6" s="21">
         <v>24</v>
       </c>
-      <c r="M6" s="3">
+      <c r="AR6" s="21">
         <v>25</v>
       </c>
-      <c r="N6" s="3">
+      <c r="AS6" s="21">
         <v>26</v>
       </c>
-      <c r="O6" s="3">
+      <c r="AT6" s="21">
         <v>27</v>
       </c>
-      <c r="P6" s="3">
+      <c r="AU6" s="21">
         <v>28</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="AV6" s="21">
         <v>29</v>
       </c>
-      <c r="R6" s="3">
-        <v>30</v>
-      </c>
-      <c r="S6" s="3">
-        <v>31</v>
-      </c>
-      <c r="T6" s="3">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3">
-        <v>2</v>
-      </c>
-      <c r="V6" s="3">
-        <v>3</v>
-      </c>
-      <c r="W6" s="3">
-        <v>4</v>
-      </c>
-      <c r="X6" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>8</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>11</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>12</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>13</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>14</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>15</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>16</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>17</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>18</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>19</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>20</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>21</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>22</v>
-      </c>
-      <c r="AP6" s="3">
-        <v>23</v>
-      </c>
-      <c r="AQ6" s="3">
-        <v>24</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>25</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>26</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>27</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>28</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>29</v>
-      </c>
-      <c r="AW6" s="3">
+      <c r="AW6" s="21">
         <v>30</v>
       </c>
       <c r="AX6" s="2">
@@ -1090,539 +1267,893 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+    </row>
+    <row r="8" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>15</v>
+      <c r="B8" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.7</v>
+        <v>46</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+    </row>
+    <row r="9" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>15</v>
+      <c r="B9" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
+      <c r="F9" s="8">
+        <v>1</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>15</v>
+      <c r="B10" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="9">
-        <v>0</v>
+      <c r="F10" s="8">
+        <v>1</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+    </row>
+    <row r="11" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>10</v>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.8</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+    </row>
+    <row r="12" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>10</v>
+      <c r="B12" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>15</v>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
+      <c r="E13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>15</v>
+      <c r="B14" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+    </row>
+    <row r="15" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.7</v>
+        <v>34</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+    </row>
+    <row r="16" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
+      <c r="F16" s="8">
+        <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="9">
+        <v>23</v>
+      </c>
+      <c r="F18" s="8">
         <v>0</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+    </row>
+    <row r="19" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>10</v>
+      <c r="B19" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="9">
+        <v>52</v>
+      </c>
+      <c r="F19" s="8">
         <v>0</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>34</v>
+      <c r="G19" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>15</v>
+      <c r="B20" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="9">
+        <v>52</v>
+      </c>
+      <c r="F20" s="8">
         <v>0</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>15</v>
+      <c r="B21" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="9">
+        <v>52</v>
+      </c>
+      <c r="F21" s="8">
         <v>0</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>15</v>
+      <c r="B22" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>10</v>
+      <c r="B23" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="9">
+        <v>52</v>
+      </c>
+      <c r="F23" s="8">
         <v>0</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+    </row>
+    <row r="24" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>22</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>23</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>24</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
+        <v>25</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="C29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="8">
         <v>0</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>19</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="G29" s="30"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
+        <v>26</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>24</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+    <row r="31" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
+        <v>27</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20">
+        <v>28</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20">
+        <v>29</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20">
+        <v>30</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20">
+        <v>31</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20">
+        <v>32</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20">
+        <v>33</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20">
+        <v>34</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="20">
+        <v>35</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20">
+        <v>36</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20">
+        <v>37</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20">
+        <v>38</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20">
+        <v>39</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="30"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20">
+        <v>40</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:H6" xr:uid="{E78DDE90-2184-49E3-A20C-159B67C9F4CF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:H30">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:H28">
       <sortCondition ref="A6"/>
     </sortState>
   </autoFilter>

--- a/일정 관리/PM.xlsx
+++ b/일정 관리/PM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gywkd\Desktop\Project_RS_Design\일정 관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김윤성\Desktop\Project_RS_Design\일정 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F1FAC7-0BF4-4919-B616-5B41BAEC6000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504E048-ABEB-4445-ADE9-83294CC9573B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB7487F1-7ED6-408A-A4FD-17909A5E2E5B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
   <si>
     <t>작업자</t>
   </si>
@@ -265,30 +265,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>김도영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불 속성 오브젝트 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물 속성 오브젝트 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람 속성 오브젝트 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>번개 속성 오브젝트 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅 속성 오브젝트 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기획</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -358,6 +334,42 @@
   </si>
   <si>
     <t>골렘 친구 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장해원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅의 정령 원화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안지성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 래퍼런스 재구성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,8 +449,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,8 +528,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -587,13 +628,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,12 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -687,8 +745,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60% - 강조색6" xfId="1" builtinId="52"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1007,10 +1102,10 @@
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
@@ -1020,8 +1115,7 @@
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="6" customWidth="1"/>
-    <col min="9" max="10" width="3.25" style="5"/>
-    <col min="29" max="49" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.5" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="54" x14ac:dyDescent="0.3">
@@ -1128,146 +1222,146 @@
       <c r="H6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="30">
         <v>21</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="31">
         <v>22</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="30">
         <v>23</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="30">
         <v>24</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="30">
         <v>25</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="30">
         <v>26</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="30">
         <v>27</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="30">
         <v>28</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="30">
         <v>29</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="30">
         <v>30</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="30">
         <v>31</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="30">
         <v>1</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U6" s="30">
         <v>2</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V6" s="30">
         <v>3</v>
       </c>
-      <c r="W6" s="21">
+      <c r="W6" s="30">
         <v>4</v>
       </c>
-      <c r="X6" s="21">
+      <c r="X6" s="30">
         <v>5</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="Y6" s="30">
         <v>6</v>
       </c>
-      <c r="Z6" s="21">
+      <c r="Z6" s="30">
         <v>7</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AA6" s="30">
         <v>8</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AB6" s="30">
         <v>9</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="30">
         <v>10</v>
       </c>
-      <c r="AD6" s="21">
+      <c r="AD6" s="30">
         <v>11</v>
       </c>
-      <c r="AE6" s="21">
+      <c r="AE6" s="30">
         <v>12</v>
       </c>
-      <c r="AF6" s="21">
+      <c r="AF6" s="30">
         <v>13</v>
       </c>
-      <c r="AG6" s="21">
+      <c r="AG6" s="30">
         <v>14</v>
       </c>
-      <c r="AH6" s="21">
+      <c r="AH6" s="30">
         <v>15</v>
       </c>
-      <c r="AI6" s="21">
+      <c r="AI6" s="30">
         <v>16</v>
       </c>
-      <c r="AJ6" s="21">
+      <c r="AJ6" s="30">
         <v>17</v>
       </c>
-      <c r="AK6" s="21">
+      <c r="AK6" s="30">
         <v>18</v>
       </c>
-      <c r="AL6" s="21">
+      <c r="AL6" s="30">
         <v>19</v>
       </c>
-      <c r="AM6" s="21">
+      <c r="AM6" s="30">
         <v>20</v>
       </c>
-      <c r="AN6" s="21">
+      <c r="AN6" s="30">
         <v>21</v>
       </c>
-      <c r="AO6" s="21">
+      <c r="AO6" s="30">
         <v>22</v>
       </c>
-      <c r="AP6" s="21">
+      <c r="AP6" s="30">
         <v>23</v>
       </c>
-      <c r="AQ6" s="21">
+      <c r="AQ6" s="30">
         <v>24</v>
       </c>
-      <c r="AR6" s="21">
+      <c r="AR6" s="30">
         <v>25</v>
       </c>
-      <c r="AS6" s="21">
+      <c r="AS6" s="30">
         <v>26</v>
       </c>
-      <c r="AT6" s="21">
+      <c r="AT6" s="30">
         <v>27</v>
       </c>
-      <c r="AU6" s="21">
+      <c r="AU6" s="30">
         <v>28</v>
       </c>
-      <c r="AV6" s="21">
+      <c r="AV6" s="30">
         <v>29</v>
       </c>
-      <c r="AW6" s="21">
+      <c r="AW6" s="30">
         <v>30</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="AX6" s="32">
         <v>1</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AY6" s="32">
         <v>2</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="AZ6" s="32">
         <v>3</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BA6" s="32">
         <v>4</v>
       </c>
-      <c r="BB6" s="2">
+      <c r="BB6" s="32">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1292,16 +1386,16 @@
       <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
     </row>
     <row r="8" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -1328,13 +1422,13 @@
       <c r="H8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
     </row>
     <row r="9" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -1361,13 +1455,13 @@
       <c r="H9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
     </row>
     <row r="10" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -1394,9 +1488,9 @@
       <c r="H10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -1421,9 +1515,14 @@
         <v>33</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
     </row>
     <row r="12" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -1462,7 +1561,7 @@
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="27" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="8">
@@ -1478,13 +1577,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>24</v>
@@ -1493,11 +1592,11 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
     </row>
     <row r="15" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -1522,11 +1621,11 @@
         <v>35</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
     </row>
     <row r="16" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -1552,31 +1651,33 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>37</v>
+      <c r="B17" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+    </row>
+    <row r="18" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -1587,7 +1688,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>23</v>
@@ -1599,70 +1700,79 @@
         <v>37</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-    </row>
-    <row r="19" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+    </row>
+    <row r="19" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F19" s="8">
         <v>0</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>75</v>
+      <c r="G19" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+    </row>
+    <row r="20" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>52</v>
@@ -1671,145 +1781,149 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="30"/>
-    </row>
-    <row r="23" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-    </row>
-    <row r="24" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F24" s="8">
         <v>0</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-    </row>
-    <row r="25" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-    </row>
-    <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>50</v>
+      <c r="B26" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F26" s="8">
         <v>0</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F27" s="8">
         <v>0</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-    </row>
-    <row r="28" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="3"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -1820,7 +1934,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>23</v>
@@ -1828,21 +1942,21 @@
       <c r="F28" s="8">
         <v>0</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-    </row>
-    <row r="29" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="3"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>25</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>10</v>
+      <c r="B29" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>23</v>
@@ -1850,21 +1964,21 @@
       <c r="F29" s="8">
         <v>0</v>
       </c>
-      <c r="G29" s="30"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>26</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>14</v>
+      <c r="B30" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>23</v>
@@ -1875,18 +1989,18 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>27</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>14</v>
+      <c r="B31" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>23</v>
@@ -1897,21 +2011,21 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>28</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -1923,17 +2037,17 @@
       <c r="A33" s="20">
         <v>29</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>10</v>
+      <c r="B33" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F33" s="8">
         <v>0</v>
@@ -1945,17 +2059,17 @@
       <c r="A34" s="20">
         <v>30</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>10</v>
+      <c r="B34" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F34" s="8">
         <v>0</v>
@@ -1967,17 +2081,17 @@
       <c r="A35" s="20">
         <v>31</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>50</v>
+      <c r="B35" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F35" s="8">
         <v>0</v>
@@ -1989,17 +2103,17 @@
       <c r="A36" s="20">
         <v>32</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>50</v>
+      <c r="B36" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F36" s="8">
         <v>0</v>
@@ -2011,17 +2125,17 @@
       <c r="A37" s="20">
         <v>33</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>55</v>
+      <c r="B37" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F37" s="8">
         <v>0</v>
@@ -2034,14 +2148,12 @@
         <v>34</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D38" s="28"/>
       <c r="E38" s="3" t="s">
         <v>23</v>
       </c>
@@ -2055,71 +2167,63 @@
       <c r="A39" s="20">
         <v>35</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="3"/>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="28"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>36</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="3"/>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="28"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>37</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="30"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="3"/>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="28"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>38</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="30"/>
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
@@ -2127,13 +2231,15 @@
       <c r="A43" s="20">
         <v>39</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="30"/>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
@@ -2141,13 +2247,15 @@
       <c r="A44" s="20">
         <v>40</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="30"/>
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
